--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_24_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82472.84209112944</v>
+        <v>15536224.43038484</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>82472.84209112944</v>
+        <v>15536224.43038484</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>196058.884445131</v>
+        <v>23159955.44312299</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>196058.884445131</v>
+        <v>23159955.44312299</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1606585783.153566</v>
+        <v>41030310.99893262</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17622.32830395226</v>
+        <v>1090450.884015791</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33520.0244349623</v>
+        <v>1977475.079628137</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49317.06164177679</v>
+        <v>2864499.27524048</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65098.34221597813</v>
+        <v>3666675.047759089</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>80513.90785014357</v>
+        <v>4569359.075779403</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>95817.14294588269</v>
+        <v>5456272.257232226</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>111121.7447384594</v>
+        <v>6344303.990836415</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>126425.4203811897</v>
+        <v>7232124.195436835</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>143894.4082670803</v>
+        <v>7524173.902359041</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>161267.7830740737</v>
+        <v>8068887.654303001</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>178462.4305146363</v>
+        <v>8587322.558246959</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>195657.077955199</v>
+        <v>9105757.462190915</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>212851.7253957616</v>
+        <v>9624192.366134875</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>230926.4237993367</v>
+        <v>9991523.894078832</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>251064.1152446473</v>
+        <v>10226220.11480284</v>
       </c>
     </row>
   </sheetData>
